--- a/2-Reqs/Risk management log.xlsx
+++ b/2-Reqs/Risk management log.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\QA workshop\githup\Foodies\2-Reqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DAB791-7424-4A3C-9D88-629C5BB5FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E9F16-F00D-43F6-A0B3-8AF10B6586BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{499CC395-B9D5-4E09-8063-BB70057202AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Web App - Risk management " sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Risk_Area">[1]DropDown_Elements!$A$2:$A$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +88,151 @@
   </si>
   <si>
     <t>Food Web App - Risk management log</t>
+  </si>
+  <si>
+    <t>RI_1</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current developers number is limited if any developer has an emergency situation or can't continue the project for any reason the project timeline will be affected. </t>
+  </si>
+  <si>
+    <t>If any one from developers team left project schedule may slip and possibly restrict the accomplishment of project goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Resources
+ Budget
+ Schedule</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>Find internal resource that meets required skill  and be available through project timeline  or increasing work load on current team members.</t>
+  </si>
+  <si>
+    <t>Risk Response
+Strategy</t>
+  </si>
+  <si>
+    <t>RI_2</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>License for tools or OS may be expired and have to be renewed.</t>
+  </si>
+  <si>
+    <t>If the tools license is expired some teams can't continue their job and the project schedule may slip and possibly restrict the accomplishment of project goals.</t>
+  </si>
+  <si>
+    <t>Budget
+Schedule</t>
+  </si>
+  <si>
+    <t>Avoidance</t>
+  </si>
+  <si>
+    <t>The IT support team will renew the licenses.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>The wrong estimation of the project schedule the project timeline  is not enough to end the project.</t>
+  </si>
+  <si>
+    <t>If there was a deviation of project schedule the project won't release with all the agreed features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule
+</t>
+  </si>
+  <si>
+    <t>RI_3</t>
+  </si>
+  <si>
+    <t>RI_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unavailability of stockholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the client/stakeholder is not avaliable this will cause some blocks in the development
+</t>
+  </si>
+  <si>
+    <t>Project Resources
+Budget
+Schedule</t>
+  </si>
+  <si>
+    <t>Determine which stakeholder will have an influence on the current part you are working on it
+Always Try to have a weekly meeting with them as to communicate with them the progress takes their feedback in early stages</t>
+  </si>
+  <si>
+    <t>RI_4</t>
+  </si>
+  <si>
+    <t>RI_7</t>
+  </si>
+  <si>
+    <t>In the middle of the project,
+client will say that he won't continue</t>
+  </si>
+  <si>
+    <t>the project will stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the customer found a cheaper company </t>
+  </si>
+  <si>
+    <t>RI_5</t>
+  </si>
+  <si>
+    <t>Response Strategy</t>
+  </si>
+  <si>
+    <t>loss of remote work product</t>
+  </si>
+  <si>
+    <t>we have created a backup copy linked on jira tool and uploaded on google drive</t>
+  </si>
+  <si>
+    <t>The current team will work overtime to close all features.</t>
+  </si>
+  <si>
+    <t>the project schdule will be delayed</t>
+  </si>
+  <si>
+    <t>Notes or comments:</t>
+  </si>
+  <si>
+    <t>customer required a change during sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept </t>
+  </si>
+  <si>
+    <t>change strategy is discussed in the SRS</t>
+  </si>
+  <si>
+    <t>RI_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current developers experinces is limited in development specially in Backend </t>
+  </si>
+  <si>
+    <t>provide the developers suitable training and enough time to practice their tasks</t>
+  </si>
+  <si>
+    <t>the project schdule will be delayed and extra budget will be required</t>
   </si>
 </sst>
 </file>
@@ -91,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +290,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -178,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -247,76 +421,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -396,95 +510,1104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -520,6 +1643,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Risk_Tracking_Log"/>
+      <sheetName val="DropDown_Elements"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Schedule</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Initial Costs</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Life-cycle Costs</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Technical Obsolescence</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Feasibility</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Reliability of Systems</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Dependencies/Interoperability</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Surety Considerations</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Future Procurements</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Project Management</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Overall Project Failure</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Organizational/Change Management</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Business</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Data/Information</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Technology</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Strategic</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Security</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Privacy</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Project Resources</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,360 +2058,1314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52DAC2-F601-4F35-BDEB-430B4F0C6F99}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="15.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:28" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
     </row>
-    <row r="2" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:28" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
+      <c r="I2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+    <row r="3" spans="1:28" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f t="shared" ref="E3:E10" si="0">IF(OR(AND(B3&lt;&gt;"Closed",C3="High",D3="High"),AND(B3&lt;&gt;"Closed",C3="High",D3="Medium"),AND(B3&lt;&gt;"Closed",C3="Medium",D3="High")),"Red",IF(OR(AND(B3&lt;&gt;"Closed",C3="High",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Medium",D3="Medium"),AND(B3&lt;&gt;"Closed",C3="Low",D3="High")),"Yellow",IF(OR(AND(B3&lt;&gt;"Closed",C3="Medium",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Low",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Low",D3="Medium")),"Green",IF(B3="Closed","Closed",""))))</f>
+        <v>Yellow</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="65"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+    <row r="4" spans="1:28" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+    <row r="5" spans="1:28" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Green</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+    <row r="6" spans="1:28" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+    <row r="7" spans="1:28" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+    <row r="8" spans="1:28" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+    <row r="9" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="67"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+    <row r="10" spans="1:28" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="19"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="19"/>
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="19"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="19"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="19"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="27"/>
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="32"/>
-      <c r="L18" s="17"/>
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F11:J19"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-  </conditionalFormatting>
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I9" xr:uid="{F487E868-8FCE-4517-98A1-F67AD127221B}">
+      <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="H3:H10" xr:uid="{9922CA4B-3BB6-43A8-86AD-BBEA83A5018B}">
+      <formula1>Risk_Area</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="B3:B10" xr:uid="{174D9A75-A864-434F-AC65-9C9111A395F8}">
+      <formula1>"Open,Closed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C3:D10" xr:uid="{8CE3FE4D-73F1-4547-B635-6A7DC76206B8}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2-Reqs/Risk management log.xlsx
+++ b/2-Reqs/Risk management log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\QA workshop\githup\Foodies\2-Reqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E9F16-F00D-43F6-A0B3-8AF10B6586BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A276C-A0C3-441A-A755-3657817AFA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{499CC395-B9D5-4E09-8063-BB70057202AE}"/>
   </bookViews>
@@ -226,13 +226,13 @@
     <t>RI_8</t>
   </si>
   <si>
-    <t xml:space="preserve">current developers experinces is limited in development specially in Backend </t>
-  </si>
-  <si>
     <t>provide the developers suitable training and enough time to practice their tasks</t>
   </si>
   <si>
     <t>the project schdule will be delayed and extra budget will be required</t>
+  </si>
+  <si>
+    <t>current developers experinces is limited in development specially in Backend section</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,191 +799,188 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1045,78 +1042,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFCC99"/>
           <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF99CC"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF99CC"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF99CC"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1657,8 +1582,8 @@
       <sheetName val="DropDown_Elements"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -2061,60 +1986,60 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
-    <col min="2" max="2" width="15.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="19"/>
+    <col min="2" max="2" width="15.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:28" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2138,530 +2063,518 @@
       <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
     </row>
     <row r="3" spans="1:28" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="24" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" ref="E3:E10" si="0">IF(OR(AND(B3&lt;&gt;"Closed",C3="High",D3="High"),AND(B3&lt;&gt;"Closed",C3="High",D3="Medium"),AND(B3&lt;&gt;"Closed",C3="Medium",D3="High")),"Red",IF(OR(AND(B3&lt;&gt;"Closed",C3="High",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Medium",D3="Medium"),AND(B3&lt;&gt;"Closed",C3="Low",D3="High")),"Yellow",IF(OR(AND(B3&lt;&gt;"Closed",C3="Medium",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Low",D3="Low"),AND(B3&lt;&gt;"Closed",C3="Low",D3="Medium")),"Green",IF(B3="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
     </row>
     <row r="4" spans="1:28" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="24" t="str">
+      <c r="E4" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
     </row>
     <row r="5" spans="1:28" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Green</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
     </row>
     <row r="6" spans="1:28" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
     </row>
     <row r="7" spans="1:28" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
     </row>
     <row r="8" spans="1:28" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
     </row>
     <row r="9" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
     </row>
     <row r="10" spans="1:28" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="24" t="str">
+      <c r="E10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="59" t="s">
+      <c r="A11" s="26"/>
+      <c r="F11" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2670,320 +2583,320 @@
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
     </row>
     <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
     </row>
     <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
     </row>
     <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2993,287 +2906,287 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D7">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D7">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D7">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2-Reqs/Risk management log.xlsx
+++ b/2-Reqs/Risk management log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\QA workshop\githup\Foodies\2-Reqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A276C-A0C3-441A-A755-3657817AFA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F9595-6C75-47A5-9393-59C4FA683ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{499CC395-B9D5-4E09-8063-BB70057202AE}"/>
   </bookViews>
